--- a/Docs/BBB_Pins.xlsx
+++ b/Docs/BBB_Pins.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="24915" windowHeight="12330"/>
@@ -12,12 +12,12 @@
     <sheet name="Pin Mode Register Value" sheetId="4" r:id="rId3"/>
     <sheet name="Offsets" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="739">
   <si>
     <t>Pin</t>
   </si>
@@ -2234,79 +2234,13 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;&lt; Copy &amp; Paste This!</t>
-  </si>
-  <si>
-    <t>IO Interface Pin Mapping</t>
-  </si>
-  <si>
-    <t>Header</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>IN1</t>
-  </si>
-  <si>
-    <t>IN2</t>
-  </si>
-  <si>
-    <t>IN3</t>
-  </si>
-  <si>
-    <t>IN4</t>
-  </si>
-  <si>
-    <t>IN5</t>
-  </si>
-  <si>
-    <t>IN6</t>
-  </si>
-  <si>
-    <t>IN7</t>
-  </si>
-  <si>
-    <t>IN8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>OUT1</t>
-  </si>
-  <si>
-    <t>OUT2</t>
-  </si>
-  <si>
-    <t>OUT3</t>
-  </si>
-  <si>
-    <t>OUT4</t>
-  </si>
-  <si>
-    <t>OUT5</t>
-  </si>
-  <si>
-    <t>OUT6</t>
-  </si>
-  <si>
-    <t>OUT7</t>
-  </si>
-  <si>
-    <t>OUT8</t>
-  </si>
-  <si>
-    <t>Address</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2515,7 +2449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2610,7 +2544,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2700,6 +2633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2734,6 +2668,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2909,14 +2844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -2931,7 +2866,7 @@
     <col min="13" max="13" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2892,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="40"/>
       <c r="C2" s="39"/>
@@ -2989,7 +2924,7 @@
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -3011,7 +2946,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -3033,7 +2968,7 @@
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -3074,7 +3009,7 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3115,7 +3050,7 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -3156,7 +3091,7 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3197,7 +3132,7 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -3238,7 +3173,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -3279,7 +3214,7 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -3320,7 +3255,7 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -3361,7 +3296,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -3402,7 +3337,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -3443,7 +3378,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -3484,7 +3419,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -3525,7 +3460,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -3566,7 +3501,7 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -3607,7 +3542,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -3648,7 +3583,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -3689,7 +3624,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -3730,7 +3665,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -3771,7 +3706,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -3814,7 +3749,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -3857,7 +3792,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -3900,7 +3835,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -3941,7 +3876,7 @@
       <c r="M26" s="23"/>
       <c r="N26" s="23"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -3982,7 +3917,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -4023,7 +3958,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -4064,7 +3999,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -4105,7 +4040,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -4146,7 +4081,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -4187,7 +4122,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -4228,7 +4163,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -4269,7 +4204,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -4310,7 +4245,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -4351,7 +4286,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -4392,7 +4327,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -4433,7 +4368,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -4474,7 +4409,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -4515,7 +4450,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -4556,7 +4491,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -4597,7 +4532,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -4638,7 +4573,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
@@ -4679,7 +4614,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
@@ -4720,7 +4655,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
@@ -4761,7 +4696,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
@@ -4802,7 +4737,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
@@ -4842,249 +4777,6 @@
       </c>
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" t="s">
-        <v>740</v>
-      </c>
-      <c r="D53" t="s">
-        <v>741</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" t="s">
-        <v>742</v>
-      </c>
-      <c r="D54">
-        <v>26</v>
-      </c>
-      <c r="E54" t="s">
-        <v>743</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" t="s">
-        <v>742</v>
-      </c>
-      <c r="D55">
-        <v>27</v>
-      </c>
-      <c r="E55" t="s">
-        <v>744</v>
-      </c>
-      <c r="F55" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" t="s">
-        <v>742</v>
-      </c>
-      <c r="D56">
-        <v>44</v>
-      </c>
-      <c r="E56" t="s">
-        <v>745</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" t="s">
-        <v>742</v>
-      </c>
-      <c r="D57">
-        <v>45</v>
-      </c>
-      <c r="E57" t="s">
-        <v>746</v>
-      </c>
-      <c r="F57" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" t="s">
-        <v>742</v>
-      </c>
-      <c r="D58">
-        <v>46</v>
-      </c>
-      <c r="E58" t="s">
-        <v>747</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="C59" t="s">
-        <v>742</v>
-      </c>
-      <c r="D59">
-        <v>47</v>
-      </c>
-      <c r="E59" t="s">
-        <v>748</v>
-      </c>
-      <c r="F59" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" t="s">
-        <v>742</v>
-      </c>
-      <c r="D60">
-        <v>61</v>
-      </c>
-      <c r="E60" t="s">
-        <v>749</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="C61" t="s">
-        <v>742</v>
-      </c>
-      <c r="D61">
-        <v>65</v>
-      </c>
-      <c r="E61" t="s">
-        <v>750</v>
-      </c>
-      <c r="F61" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="C63" t="s">
-        <v>751</v>
-      </c>
-      <c r="D63">
-        <v>20</v>
-      </c>
-      <c r="E63" t="s">
-        <v>752</v>
-      </c>
-      <c r="F63" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="C64" t="s">
-        <v>751</v>
-      </c>
-      <c r="D64">
-        <v>48</v>
-      </c>
-      <c r="E64" t="s">
-        <v>753</v>
-      </c>
-      <c r="F64" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" t="s">
-        <v>751</v>
-      </c>
-      <c r="D65">
-        <v>49</v>
-      </c>
-      <c r="E65" t="s">
-        <v>754</v>
-      </c>
-      <c r="F65" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="C66" t="s">
-        <v>751</v>
-      </c>
-      <c r="D66">
-        <v>60</v>
-      </c>
-      <c r="E66" t="s">
-        <v>755</v>
-      </c>
-      <c r="F66" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" t="s">
-        <v>751</v>
-      </c>
-      <c r="D67">
-        <v>112</v>
-      </c>
-      <c r="E67" t="s">
-        <v>756</v>
-      </c>
-      <c r="F67" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" t="s">
-        <v>751</v>
-      </c>
-      <c r="D68">
-        <v>115</v>
-      </c>
-      <c r="E68" t="s">
-        <v>757</v>
-      </c>
-      <c r="F68" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" t="s">
-        <v>751</v>
-      </c>
-      <c r="D69">
-        <v>117</v>
-      </c>
-      <c r="E69" t="s">
-        <v>758</v>
-      </c>
-      <c r="F69" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" t="s">
-        <v>751</v>
-      </c>
-      <c r="D70" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" t="s">
-        <v>759</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>625</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5100,14 +4792,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:F62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N52" sqref="A1:N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -5124,7 +4816,7 @@
     <col min="13" max="13" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -5150,7 +4842,7 @@
       <c r="M1" s="23"/>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="39"/>
       <c r="B2" s="42"/>
       <c r="C2" s="43"/>
@@ -5182,7 +4874,7 @@
       <c r="M2" s="23"/>
       <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -5204,7 +4896,7 @@
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5226,7 +4918,7 @@
       <c r="M4" s="23"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5248,7 +4940,7 @@
       <c r="M5" s="23"/>
       <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5270,7 +4962,7 @@
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -5292,7 +4984,7 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -5314,7 +5006,7 @@
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -5336,7 +5028,7 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -5358,7 +5050,7 @@
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -5380,7 +5072,7 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
@@ -5418,7 +5110,7 @@
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
@@ -5459,7 +5151,7 @@
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
@@ -5500,7 +5192,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
@@ -5541,7 +5233,7 @@
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
@@ -5582,7 +5274,7 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
@@ -5623,7 +5315,7 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5664,7 +5356,7 @@
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -5705,7 +5397,7 @@
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
@@ -5746,7 +5438,7 @@
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -5787,7 +5479,7 @@
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
@@ -5828,7 +5520,7 @@
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
@@ -5869,7 +5561,7 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
@@ -5912,7 +5604,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -5955,7 +5647,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5998,7 +5690,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -6039,7 +5731,7 @@
       <c r="M27" s="23"/>
       <c r="N27" s="23"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -6080,7 +5772,7 @@
       <c r="M28" s="23"/>
       <c r="N28" s="23"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
@@ -6121,7 +5813,7 @@
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
@@ -6162,7 +5854,7 @@
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -6203,7 +5895,7 @@
       <c r="M31" s="23"/>
       <c r="N31" s="23"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
@@ -6244,7 +5936,7 @@
       <c r="M32" s="23"/>
       <c r="N32" s="23"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
@@ -6285,7 +5977,7 @@
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
@@ -6307,7 +5999,7 @@
       <c r="M34" s="23"/>
       <c r="N34" s="23"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
@@ -6329,7 +6021,7 @@
       <c r="M35" s="23"/>
       <c r="N35" s="23"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
@@ -6351,7 +6043,7 @@
       <c r="M36" s="23"/>
       <c r="N36" s="23"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
@@ -6373,7 +6065,7 @@
       <c r="M37" s="23"/>
       <c r="N37" s="23"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
@@ -6395,7 +6087,7 @@
       <c r="M38" s="23"/>
       <c r="N38" s="23"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
@@ -6417,7 +6109,7 @@
       <c r="M39" s="23"/>
       <c r="N39" s="23"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
@@ -6439,7 +6131,7 @@
       <c r="M40" s="23"/>
       <c r="N40" s="23"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
@@ -6461,7 +6153,7 @@
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
@@ -6483,7 +6175,7 @@
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
@@ -6524,7 +6216,7 @@
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="14" t="s">
         <v>536</v>
       </c>
@@ -6565,7 +6257,7 @@
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>42</v>
       </c>
@@ -6606,7 +6298,7 @@
       <c r="M45" s="23"/>
       <c r="N45" s="23"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="14" t="s">
         <v>537</v>
       </c>
@@ -6647,7 +6339,7 @@
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>43</v>
       </c>
@@ -6669,7 +6361,7 @@
       <c r="M47" s="23"/>
       <c r="N47" s="23"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>44</v>
       </c>
@@ -6691,7 +6383,7 @@
       <c r="M48" s="23"/>
       <c r="N48" s="23"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45</v>
       </c>
@@ -6713,7 +6405,7 @@
       <c r="M49" s="23"/>
       <c r="N49" s="23"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>46</v>
       </c>
@@ -6735,7 +6427,7 @@
       <c r="M50" s="23"/>
       <c r="N50" s="23"/>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="23"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
@@ -6751,7 +6443,7 @@
       <c r="M51" s="23"/>
       <c r="N51" s="23"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="23"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26" t="s">
@@ -6783,14 +6475,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
@@ -6799,7 +6491,7 @@
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1" s="5" t="s">
         <v>722</v>
       </c>
@@ -6816,7 +6508,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="28" t="s">
         <v>731</v>
       </c>
@@ -6840,7 +6532,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3" s="27">
         <f>VLOOKUP(C2,C7:D8,2)</f>
         <v>0</v>
@@ -6858,7 +6550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
         <v>722</v>
       </c>
@@ -6869,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>732</v>
       </c>
@@ -6880,12 +6572,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="38"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>733</v>
       </c>
@@ -6896,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>734</v>
       </c>
@@ -6907,12 +6599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
     </row>
-    <row r="13" spans="2:9">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>735</v>
       </c>
@@ -6923,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="35" t="s">
         <v>736</v>
       </c>
@@ -6934,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="32"/>
       <c r="C15" s="33" t="s">
         <v>727</v>
@@ -6943,12 +6635,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="38"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>2</v>
       </c>
@@ -6957,7 +6649,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="35" t="s">
         <v>737</v>
       </c>
@@ -6966,42 +6658,42 @@
       </c>
       <c r="D18" s="37"/>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="35"/>
       <c r="C19" s="36">
         <v>2</v>
       </c>
       <c r="D19" s="37"/>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="35"/>
       <c r="C20" s="36">
         <v>3</v>
       </c>
       <c r="D20" s="37"/>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="35"/>
       <c r="C21" s="36">
         <v>4</v>
       </c>
       <c r="D21" s="37"/>
     </row>
-    <row r="22" spans="2:4">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="35"/>
       <c r="C22" s="36">
         <v>5</v>
       </c>
       <c r="D22" s="37"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="35"/>
       <c r="C23" s="36">
         <v>6</v>
       </c>
       <c r="D23" s="37"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
       <c r="C24" s="33">
         <v>7</v>
@@ -7029,19 +6721,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="A38:B38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -7049,7 +6741,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -7057,7 +6749,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -7065,7 +6757,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -7073,7 +6765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>145</v>
       </c>
@@ -7081,7 +6773,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -7089,7 +6781,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -7097,7 +6789,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -7105,7 +6797,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>125</v>
       </c>
@@ -7113,7 +6805,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>88</v>
       </c>
@@ -7121,7 +6813,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -7129,7 +6821,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -7137,7 +6829,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>437</v>
       </c>
@@ -7145,7 +6837,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -7153,7 +6845,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -7161,7 +6853,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -7169,7 +6861,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>259</v>
       </c>
@@ -7177,7 +6869,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>263</v>
       </c>
@@ -7185,7 +6877,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>251</v>
       </c>
@@ -7193,7 +6885,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>255</v>
       </c>
@@ -7201,7 +6893,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -7209,7 +6901,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -7217,7 +6909,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>233</v>
       </c>
@@ -7225,7 +6917,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -7233,7 +6925,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>159</v>
       </c>
@@ -7241,7 +6933,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>167</v>
       </c>
@@ -7249,7 +6941,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -7257,7 +6949,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -7265,7 +6957,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>275</v>
       </c>
@@ -7273,7 +6965,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>289</v>
       </c>
@@ -7281,7 +6973,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>546</v>
       </c>
@@ -7289,7 +6981,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>155</v>
       </c>
@@ -7297,7 +6989,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>137</v>
       </c>
@@ -7305,7 +6997,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -7313,7 +7005,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>547</v>
       </c>
@@ -7321,7 +7013,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -7329,7 +7021,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -7337,7 +7029,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -7345,7 +7037,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -7353,7 +7045,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>548</v>
       </c>
@@ -7361,7 +7053,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -7369,7 +7061,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>262</v>
       </c>
@@ -7377,7 +7069,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -7385,7 +7077,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>254</v>
       </c>
@@ -7393,7 +7085,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>241</v>
       </c>
@@ -7401,7 +7093,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -7409,7 +7101,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -7417,7 +7109,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>236</v>
       </c>
@@ -7425,7 +7117,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>218</v>
       </c>
@@ -7433,7 +7125,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>226</v>
       </c>
@@ -7441,7 +7133,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>211</v>
       </c>
@@ -7449,7 +7141,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>196</v>
       </c>
@@ -7457,7 +7149,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>204</v>
       </c>
@@ -7465,7 +7157,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>190</v>
       </c>
@@ -7473,7 +7165,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -7481,7 +7173,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>182</v>
       </c>
@@ -7489,7 +7181,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>158</v>
       </c>
@@ -7497,7 +7189,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>166</v>
       </c>
@@ -7505,7 +7197,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>162</v>
       </c>
@@ -7513,7 +7205,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>170</v>
       </c>
@@ -7521,7 +7213,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>549</v>
       </c>
@@ -7529,7 +7221,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>550</v>
       </c>
@@ -7537,7 +7229,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>551</v>
       </c>
@@ -7545,7 +7237,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>552</v>
       </c>
@@ -7553,7 +7245,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>553</v>
       </c>
@@ -7561,7 +7253,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>554</v>
       </c>
@@ -7569,7 +7261,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>555</v>
       </c>
@@ -7577,7 +7269,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>556</v>
       </c>
@@ -7585,7 +7277,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>557</v>
       </c>
@@ -7593,7 +7285,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>558</v>
       </c>
@@ -7601,7 +7293,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>559</v>
       </c>
@@ -7609,7 +7301,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>560</v>
       </c>
@@ -7617,7 +7309,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>561</v>
       </c>
@@ -7625,7 +7317,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>562</v>
       </c>
@@ -7633,7 +7325,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>563</v>
       </c>
@@ -7641,7 +7333,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>564</v>
       </c>
@@ -7649,7 +7341,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>565</v>
       </c>
@@ -7657,7 +7349,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>566</v>
       </c>
@@ -7665,7 +7357,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>567</v>
       </c>
@@ -7673,7 +7365,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>568</v>
       </c>
@@ -7681,7 +7373,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>569</v>
       </c>
@@ -7689,7 +7381,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>570</v>
       </c>
@@ -7697,7 +7389,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>571</v>
       </c>
@@ -7705,7 +7397,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>572</v>
       </c>
@@ -7713,7 +7405,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>344</v>
       </c>
@@ -7721,7 +7413,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>338</v>
       </c>
@@ -7729,7 +7421,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -7737,7 +7429,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>314</v>
       </c>
@@ -7745,7 +7437,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>573</v>
       </c>
@@ -7753,7 +7445,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>574</v>
       </c>
@@ -7761,7 +7453,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>575</v>
       </c>
@@ -7769,7 +7461,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>576</v>
       </c>
@@ -7777,7 +7469,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>577</v>
       </c>
@@ -7785,7 +7477,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>578</v>
       </c>
@@ -7793,7 +7485,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>332</v>
       </c>
@@ -7801,7 +7493,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>326</v>
       </c>
@@ -7809,7 +7501,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>366</v>
       </c>
@@ -7817,7 +7509,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>356</v>
       </c>
@@ -7825,7 +7517,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>579</v>
       </c>
@@ -7833,7 +7525,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>580</v>
       </c>
@@ -7841,7 +7533,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>221</v>
       </c>
@@ -7849,7 +7541,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>228</v>
       </c>
@@ -7857,7 +7549,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -7865,7 +7557,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>199</v>
       </c>
@@ -7873,7 +7565,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>207</v>
       </c>
@@ -7881,7 +7573,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -7889,7 +7581,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>177</v>
       </c>
@@ -7897,7 +7589,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>185</v>
       </c>
@@ -7905,7 +7597,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>581</v>
       </c>
@@ -7913,7 +7605,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>408</v>
       </c>
@@ -7921,7 +7613,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>582</v>
       </c>
@@ -7929,7 +7621,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>583</v>
       </c>
@@ -7937,7 +7629,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>584</v>
       </c>
@@ -7945,7 +7637,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>585</v>
       </c>
@@ -7953,7 +7645,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>586</v>
       </c>
@@ -7961,7 +7653,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>587</v>
       </c>
@@ -7969,7 +7661,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>588</v>
       </c>
@@ -7977,7 +7669,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>589</v>
       </c>
@@ -7985,7 +7677,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>590</v>
       </c>
@@ -7993,7 +7685,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>591</v>
       </c>
@@ -8001,7 +7693,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>592</v>
       </c>
@@ -8009,7 +7701,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>593</v>
       </c>
@@ -8017,7 +7709,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>594</v>
       </c>
@@ -8025,7 +7717,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>595</v>
       </c>
@@ -8033,7 +7725,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>596</v>
       </c>
